--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>question</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>бриджманит/ MgSiO3</t>
+  </si>
+  <si>
+    <t>comment_photo</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/FNCwTQO7ugx8WA</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,9 +445,10 @@
     <col min="2" max="2" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +458,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -465,8 +475,11 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -480,7 +493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -494,7 +507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -508,7 +521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>

--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>question</t>
   </si>
@@ -27,84 +27,296 @@
     <t>comment</t>
   </si>
   <si>
-    <t>четыре/ 4</t>
-  </si>
-  <si>
-    <t>Россия/ Российская Федерация</t>
-  </si>
-  <si>
-    <t>Лужники</t>
-  </si>
-  <si>
-    <t>2 + 2 = 4</t>
-  </si>
-  <si>
-    <t>На фото Воробьёвы горы</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/t9Hl4OFyQgOJGw</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/fkRIDvps0nEUdA</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/wjCWdO3ITj3Ryg</t>
-  </si>
-  <si>
-    <r>
-      <t>Территория России ставляет 17 125 191</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>км²</t>
-    </r>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/2t8Z960_ODoznw</t>
-  </si>
-  <si>
-    <t>На сегодняшний день цена составляет 41,66 $</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/kSJBZ0e2fs8Zcg</t>
-  </si>
-  <si>
-    <t>Бриджманит (MgSiO3) самый распространенный на Земле минерал - он составляет почти 40% от всего объема планеты</t>
-  </si>
-  <si>
-    <t>бриджманит/ MgSiO3</t>
-  </si>
-  <si>
     <t>comment_photo</t>
   </si>
   <si>
-    <t>https://yadi.sk/i/FNCwTQO7ugx8WA</t>
+    <t>https://yadi.sk/i/R_Phf02SXVMTow</t>
+  </si>
+  <si>
+    <t>Баку</t>
+  </si>
+  <si>
+    <t>В 1847 году именно в Баку была пробурена первая разведочная скважина на нефть глубиной 21 м. Первая в мире современная нефтяная скважина была также пробурена здесь в период с 1847 по 1848 год. Первая нефть была получена ударным способом с применением деревянных штанг 14 июля 1848 года.</t>
+  </si>
+  <si>
+    <t>инженер</t>
+  </si>
+  <si>
+    <t>В старину на Руси строители городов, укреплений, мостов и плотин, а также литейщики пушек и колоколов — все те, кого назвали бы мы теперь инженерами, назывались розмыслами. Понятия, одинакового по значению с русским словом «розмысл», до появления слова «инженер» не было ни на одном языке. Люди, которые теперь зовутся инженерами, в старину у англичан назывались капитанами, у французов — мэтрами, у немцев — мейстерами.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/e6dGwkNHlKfsMQ</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/inR-HIiCWuuHMA</t>
+  </si>
+  <si>
+    <t>аптеки/ аптека</t>
+  </si>
+  <si>
+    <t>В 16-17 веках нефть на Руси можно было купить в аптеке как лекарство. Русские врачи лечили нефтью кожные заболевания, болезни суставов, ревматизм и некоторые болезни глаз.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/HDUKBONPXDzemQ</t>
+  </si>
+  <si>
+    <t>СССР</t>
+  </si>
+  <si>
+    <t>Если советскому автолюбителю было нужно заправить свой автомобиль, то он первым делом отправлялся в хозяйственный или продуктовый магазин. Там можно было приобрести талоны на бензин или моторное масло, которые затем предъявлялись  на АЗС.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/p6Oqzm5Xvpc7yg</t>
+  </si>
+  <si>
+    <t>Каменный уголь/ уголь</t>
+  </si>
+  <si>
+    <t>В начале мая 1819 года английские предприниматели представили новому петербургскому генерал-губернатору графу М. А. Милорадовичу, составленный в достаточно общих выраже­ниях проект «…Об освещении Санкт-Петербурга газом… как сие производится в Лондо­не.». Для устройства уличного и внутренне­го освещения предполагалось использовать искусственный горючий газ, получаемый из ка­менного угля.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/OZILe0m4WbOmAg</t>
+  </si>
+  <si>
+    <t>Жан Пол Гетти (1892-1976) — американский промышленник, один из первых в истории долларовых миллиардеров. В империю Гетти входила крупнейшая компания Getty Oil Company и более 200 концернов.</t>
+  </si>
+  <si>
+    <t>Качай нефть/ добывай нефть</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/oEqaCUb0VFhipQ</t>
+  </si>
+  <si>
+    <t>Чехов</t>
+  </si>
+  <si>
+    <t>Антон Павлович Чехов, родившийся  недалеко от угольных копей Восточного Донбасса, описал безрадостную жизнь островных углекопов.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/aQJbajYhtCUQUg</t>
+  </si>
+  <si>
+    <t>Иран</t>
+  </si>
+  <si>
+    <t>Организация стран экспортёров нефти  — международная межправительственная организация, созданная нефтедобывающими странами в целях контроля квот добычи на нефть. Часто рассматривается как картель. По состоянию на март 2020 г. в состав ОПЕК входят 13 стран. Штаб-квартира расположена в Вене.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/yDw7r-dHMc3e-w</t>
+  </si>
+  <si>
+    <t>Енисей</t>
+  </si>
+  <si>
+    <t>речь о Саяно-Шушенской ГЭС (6,4 ГВт)</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/aDJdRDbVFYgGRA</t>
+  </si>
+  <si>
+    <t>Венесуэла</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/5uWA0YFCf_NvHg</t>
+  </si>
+  <si>
+    <t>США/ Соединённые Штаты Америки</t>
+  </si>
+  <si>
+    <t>Первые стоящие отдельно «станции для автомобилистов» появились в США в начале ХХ века (есть упоминания о 1907). Первые заправки представляли собой одну-две цистерны, стоящие на подпорках, от каждой шли шланги, по которым бензин самотеком поступал в баки автомобилей.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/UNYAhCQd5dEQUw</t>
+  </si>
+  <si>
+    <t>Каменный уголь — один из самых старых и давно используемых видов топлива. Пожалуй, раньше, чем уголь, использовались только дрова. В наше время уголь постепенно сдаёт позиции — всё-таки он не слишком экологичен, да и угольные залежи не бесконечны.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/soWCV1XWTS_Rwg</t>
+  </si>
+  <si>
+    <t>геолог</t>
+  </si>
+  <si>
+    <t>Именно геологи первыми стоят у месторождений.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/BPwoJPO7Ks4KMA</t>
+  </si>
+  <si>
+    <t>Сталин</t>
+  </si>
+  <si>
+    <t>«Огни Баку» — азербайджанский советский фильм 1950 года. На экраны выпущен не был. В 1968 году фильм был подвергнут очередной ревизии — на этот раз из него исчез Сталин.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/uHCx3ubcBkFt3g</t>
+  </si>
+  <si>
+    <t>батарейки/ батареек/ батарейка</t>
+  </si>
+  <si>
+    <t>18 февраля в честь итальянского физика и изобретателя электрической батареи Алессандро Вольта, родившегося в этот день в 1745 году, отмечается День батарейки — устройства, преобразующего химическую энергию в электрическую путём химической реакции.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/obkCV9yZjqJivA</t>
+  </si>
+  <si>
+    <t>Альметьевск</t>
+  </si>
+  <si>
+    <t>Постройка трубопровода была начата 10 декабря 1960 года, начальной точкой строительства стал Альметьевск.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/EuVzVl44crx4rQ</t>
+  </si>
+  <si>
+    <t>хаос</t>
+  </si>
+  <si>
+    <t>Джек Лондон писал, что "хаос без начала и конца". Многие ученые считают, что слово газ образовалось от хаос.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/pmN0oBtG3r7oag</t>
+  </si>
+  <si>
+    <t>Тесла/ Tesla</t>
+  </si>
+  <si>
+    <t>Tesla — американская компания, производитель электромобилей и решений для хранения электрической энергии</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/I3A-14t8qCmgzA</t>
+  </si>
+  <si>
+    <t>Германия</t>
+  </si>
+  <si>
+    <t>Собираясь воевать, немецкие генералы прекрасно учли, что своей нефти маловато будет для более-менее приличной войны. Значит, нужно было что-то, из чего можно получать топливо, да еще чтобы этого что-то было своего и побольше. Ну правильно, каменный уголь. Его в Германии было не просто много. В особенности – бурый уголь, что вообще стало спасением, поскольку он не был таким востребованным.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/jeKMmh1idqd9eg</t>
+  </si>
+  <si>
+    <t>AC/DC/ ACDC</t>
+  </si>
+  <si>
+    <t>На швейной машинке был переключатель AC/DC - постоянный переменный ток.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/09V02qyEm26qHQ</t>
+  </si>
+  <si>
+    <t>торф</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/JwV1gYa5ZCg1dQ</t>
+  </si>
+  <si>
+    <t>День энергетика/ энергетика/ энергетик</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/Tddj7F9cPGfZxg</t>
+  </si>
+  <si>
+    <t>керосиновая лампа</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/HAKPiy47bsADiA</t>
+  </si>
+  <si>
+    <t>военные/ артиллеристы</t>
+  </si>
+  <si>
+    <t>Выстрелами из артиллерийского орудия МТ-12 Рапира была срезана фонтанная арматура горящей скважины</t>
+  </si>
+  <si>
+    <t>Канарейка</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/fh0I4HvMq7zrQA</t>
+  </si>
+  <si>
+    <t>Канарейки очень чувствительны к газам, в том числе метану, и гибнут даже от незначительной примеси его в воздухе. Если пения давно не было слышно, значит, следовало подниматься наверх как можно быстрее.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/BRdfaTeIJwA6ag</t>
+  </si>
+  <si>
+    <t>Менделеев</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/drDBihlTQbMJBw</t>
+  </si>
+  <si>
+    <t>Сланцевый газ</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/5Cg9_zEKoQpeYA</t>
+  </si>
+  <si>
+    <t>Бенц</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/VEzw-o1OZG7vBw</t>
+  </si>
+  <si>
+    <t>Термальные источники/ горячие источники/ Термальными источниками/ горячими источниками</t>
+  </si>
+  <si>
+    <t>Город Эссо находится на полуострове Камчатка</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/TAvHC-l8PEHvBg</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/EABzK6mZN0bKPQ</t>
+  </si>
+  <si>
+    <t>159/ 159 литров</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/eCYsGrwHpYExTQ</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/Wa5AOxam1uhbtw</t>
+  </si>
+  <si>
+    <t>бамбук/ бамбука</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/a3tvWcu-N_7seQ</t>
+  </si>
+  <si>
+    <t>Кожаный мешок</t>
+  </si>
+  <si>
+    <t>Пленные/ военнопленные</t>
+  </si>
+  <si>
+    <t>Цецилия Берта Бенц  в возрасте 23 лет она вышла замуж за Карла Бенца, изобретателя одного из самых первых автомобилей в мире.</t>
+  </si>
+  <si>
+    <t>О чем вы подумаете, услышав фамилию Менделеев? Ну конечно же, о периодической системе элементов. Но еще Меделеев после посещения Баку был поражен, что добытую нефть тогда перевозили для перегонки в бурдюках и бочках на арбах, запряженных лошадьми, верблюдами или мулами.</t>
+  </si>
+  <si>
+    <t>Сланцевый газ — природный газ, добываемый из горючих сланцев и состоящий преимущественно из метана. При его добычи используют жидкости,  сгущенные с помощью канцерогенных веществ. Непоправимый вред от добычи сланцевого газа может принести попадание этих химических реагентов в пласты, содержащие артезианскую воду, которую используют для питья.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF202122"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,12 +339,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -434,21 +645,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,80 +670,483 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2008</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>question</t>
   </si>
@@ -304,6 +304,18 @@
   </si>
   <si>
     <t>Сланцевый газ — природный газ, добываемый из горючих сланцев и состоящий преимущественно из метана. При его добычи используют жидкости,  сгущенные с помощью канцерогенных веществ. Непоправимый вред от добычи сланцевого газа может принести попадание этих химических реагентов в пласты, содержащие артезианскую воду, которую используют для питья.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/PCTIJCsz7Yt8HA</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/AQLqmSeKtZC21A</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/xN19cjDbCxNeqg</t>
+  </si>
+  <si>
+    <t>Именно в Голландии Петр I увидел, как торф применяют  как подстилку для домашнего скота вместо соломы, и, убедившись в полезности голландского опыта, попытался перенести его на русскую землю, приказав подданным добывать торф, особенно в безлесных местах.</t>
   </si>
 </sst>
 </file>
@@ -647,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,6 +698,9 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -770,6 +785,9 @@
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -812,6 +830,9 @@
       <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -953,7 +974,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -964,7 +985,7 @@
         <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">

--- a/questions2.xlsx
+++ b/questions2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
   <si>
     <t>question</t>
   </si>
@@ -30,292 +30,427 @@
     <t>comment_photo</t>
   </si>
   <si>
-    <t>https://yadi.sk/i/R_Phf02SXVMTow</t>
-  </si>
-  <si>
-    <t>Баку</t>
-  </si>
-  <si>
-    <t>В 1847 году именно в Баку была пробурена первая разведочная скважина на нефть глубиной 21 м. Первая в мире современная нефтяная скважина была также пробурена здесь в период с 1847 по 1848 год. Первая нефть была получена ударным способом с применением деревянных штанг 14 июля 1848 года.</t>
-  </si>
-  <si>
-    <t>инженер</t>
-  </si>
-  <si>
-    <t>В старину на Руси строители городов, укреплений, мостов и плотин, а также литейщики пушек и колоколов — все те, кого назвали бы мы теперь инженерами, назывались розмыслами. Понятия, одинакового по значению с русским словом «розмысл», до появления слова «инженер» не было ни на одном языке. Люди, которые теперь зовутся инженерами, в старину у англичан назывались капитанами, у французов — мэтрами, у немцев — мейстерами.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/e6dGwkNHlKfsMQ</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/inR-HIiCWuuHMA</t>
-  </si>
-  <si>
-    <t>аптеки/ аптека</t>
-  </si>
-  <si>
-    <t>В 16-17 веках нефть на Руси можно было купить в аптеке как лекарство. Русские врачи лечили нефтью кожные заболевания, болезни суставов, ревматизм и некоторые болезни глаз.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/HDUKBONPXDzemQ</t>
-  </si>
-  <si>
-    <t>СССР</t>
-  </si>
-  <si>
-    <t>Если советскому автолюбителю было нужно заправить свой автомобиль, то он первым делом отправлялся в хозяйственный или продуктовый магазин. Там можно было приобрести талоны на бензин или моторное масло, которые затем предъявлялись  на АЗС.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/p6Oqzm5Xvpc7yg</t>
-  </si>
-  <si>
-    <t>Каменный уголь/ уголь</t>
-  </si>
-  <si>
-    <t>В начале мая 1819 года английские предприниматели представили новому петербургскому генерал-губернатору графу М. А. Милорадовичу, составленный в достаточно общих выраже­ниях проект «…Об освещении Санкт-Петербурга газом… как сие производится в Лондо­не.». Для устройства уличного и внутренне­го освещения предполагалось использовать искусственный горючий газ, получаемый из ка­менного угля.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/OZILe0m4WbOmAg</t>
-  </si>
-  <si>
-    <t>Жан Пол Гетти (1892-1976) — американский промышленник, один из первых в истории долларовых миллиардеров. В империю Гетти входила крупнейшая компания Getty Oil Company и более 200 концернов.</t>
-  </si>
-  <si>
-    <t>Качай нефть/ добывай нефть</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/oEqaCUb0VFhipQ</t>
-  </si>
-  <si>
-    <t>Чехов</t>
-  </si>
-  <si>
-    <t>Антон Павлович Чехов, родившийся  недалеко от угольных копей Восточного Донбасса, описал безрадостную жизнь островных углекопов.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/aQJbajYhtCUQUg</t>
-  </si>
-  <si>
-    <t>Иран</t>
-  </si>
-  <si>
-    <t>Организация стран экспортёров нефти  — международная межправительственная организация, созданная нефтедобывающими странами в целях контроля квот добычи на нефть. Часто рассматривается как картель. По состоянию на март 2020 г. в состав ОПЕК входят 13 стран. Штаб-квартира расположена в Вене.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/yDw7r-dHMc3e-w</t>
-  </si>
-  <si>
-    <t>Енисей</t>
-  </si>
-  <si>
-    <t>речь о Саяно-Шушенской ГЭС (6,4 ГВт)</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/aDJdRDbVFYgGRA</t>
-  </si>
-  <si>
-    <t>Венесуэла</t>
-  </si>
-  <si>
     <t>!</t>
   </si>
   <si>
-    <t>https://yadi.sk/i/5uWA0YFCf_NvHg</t>
-  </si>
-  <si>
-    <t>США/ Соединённые Штаты Америки</t>
-  </si>
-  <si>
-    <t>Первые стоящие отдельно «станции для автомобилистов» появились в США в начале ХХ века (есть упоминания о 1907). Первые заправки представляли собой одну-две цистерны, стоящие на подпорках, от каждой шли шланги, по которым бензин самотеком поступал в баки автомобилей.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/UNYAhCQd5dEQUw</t>
-  </si>
-  <si>
-    <t>Каменный уголь — один из самых старых и давно используемых видов топлива. Пожалуй, раньше, чем уголь, использовались только дрова. В наше время уголь постепенно сдаёт позиции — всё-таки он не слишком экологичен, да и угольные залежи не бесконечны.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/soWCV1XWTS_Rwg</t>
-  </si>
-  <si>
-    <t>геолог</t>
-  </si>
-  <si>
-    <t>Именно геологи первыми стоят у месторождений.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/BPwoJPO7Ks4KMA</t>
-  </si>
-  <si>
-    <t>Сталин</t>
-  </si>
-  <si>
-    <t>«Огни Баку» — азербайджанский советский фильм 1950 года. На экраны выпущен не был. В 1968 году фильм был подвергнут очередной ревизии — на этот раз из него исчез Сталин.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/uHCx3ubcBkFt3g</t>
-  </si>
-  <si>
-    <t>батарейки/ батареек/ батарейка</t>
-  </si>
-  <si>
-    <t>18 февраля в честь итальянского физика и изобретателя электрической батареи Алессандро Вольта, родившегося в этот день в 1745 году, отмечается День батарейки — устройства, преобразующего химическую энергию в электрическую путём химической реакции.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/obkCV9yZjqJivA</t>
-  </si>
-  <si>
-    <t>Альметьевск</t>
-  </si>
-  <si>
-    <t>Постройка трубопровода была начата 10 декабря 1960 года, начальной точкой строительства стал Альметьевск.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/EuVzVl44crx4rQ</t>
-  </si>
-  <si>
-    <t>хаос</t>
-  </si>
-  <si>
-    <t>Джек Лондон писал, что "хаос без начала и конца". Многие ученые считают, что слово газ образовалось от хаос.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/pmN0oBtG3r7oag</t>
-  </si>
-  <si>
-    <t>Тесла/ Tesla</t>
-  </si>
-  <si>
-    <t>Tesla — американская компания, производитель электромобилей и решений для хранения электрической энергии</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/I3A-14t8qCmgzA</t>
-  </si>
-  <si>
-    <t>Германия</t>
-  </si>
-  <si>
-    <t>Собираясь воевать, немецкие генералы прекрасно учли, что своей нефти маловато будет для более-менее приличной войны. Значит, нужно было что-то, из чего можно получать топливо, да еще чтобы этого что-то было своего и побольше. Ну правильно, каменный уголь. Его в Германии было не просто много. В особенности – бурый уголь, что вообще стало спасением, поскольку он не был таким востребованным.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/jeKMmh1idqd9eg</t>
-  </si>
-  <si>
-    <t>AC/DC/ ACDC</t>
-  </si>
-  <si>
-    <t>На швейной машинке был переключатель AC/DC - постоянный переменный ток.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/09V02qyEm26qHQ</t>
-  </si>
-  <si>
-    <t>торф</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/JwV1gYa5ZCg1dQ</t>
-  </si>
-  <si>
-    <t>День энергетика/ энергетика/ энергетик</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/Tddj7F9cPGfZxg</t>
-  </si>
-  <si>
-    <t>керосиновая лампа</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/HAKPiy47bsADiA</t>
-  </si>
-  <si>
-    <t>военные/ артиллеристы</t>
-  </si>
-  <si>
-    <t>Выстрелами из артиллерийского орудия МТ-12 Рапира была срезана фонтанная арматура горящей скважины</t>
-  </si>
-  <si>
-    <t>Канарейка</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/fh0I4HvMq7zrQA</t>
-  </si>
-  <si>
-    <t>Канарейки очень чувствительны к газам, в том числе метану, и гибнут даже от незначительной примеси его в воздухе. Если пения давно не было слышно, значит, следовало подниматься наверх как можно быстрее.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/BRdfaTeIJwA6ag</t>
-  </si>
-  <si>
-    <t>Менделеев</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/drDBihlTQbMJBw</t>
-  </si>
-  <si>
-    <t>Сланцевый газ</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/5Cg9_zEKoQpeYA</t>
-  </si>
-  <si>
-    <t>Бенц</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/VEzw-o1OZG7vBw</t>
-  </si>
-  <si>
-    <t>Термальные источники/ горячие источники/ Термальными источниками/ горячими источниками</t>
-  </si>
-  <si>
-    <t>Город Эссо находится на полуострове Камчатка</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/TAvHC-l8PEHvBg</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/EABzK6mZN0bKPQ</t>
-  </si>
-  <si>
-    <t>159/ 159 литров</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/eCYsGrwHpYExTQ</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/Wa5AOxam1uhbtw</t>
-  </si>
-  <si>
-    <t>бамбук/ бамбука</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/a3tvWcu-N_7seQ</t>
-  </si>
-  <si>
-    <t>Кожаный мешок</t>
-  </si>
-  <si>
-    <t>Пленные/ военнопленные</t>
-  </si>
-  <si>
-    <t>Цецилия Берта Бенц  в возрасте 23 лет она вышла замуж за Карла Бенца, изобретателя одного из самых первых автомобилей в мире.</t>
-  </si>
-  <si>
-    <t>О чем вы подумаете, услышав фамилию Менделеев? Ну конечно же, о периодической системе элементов. Но еще Меделеев после посещения Баку был поражен, что добытую нефть тогда перевозили для перегонки в бурдюках и бочках на арбах, запряженных лошадьми, верблюдами или мулами.</t>
-  </si>
-  <si>
-    <t>Сланцевый газ — природный газ, добываемый из горючих сланцев и состоящий преимущественно из метана. При его добычи используют жидкости,  сгущенные с помощью канцерогенных веществ. Непоправимый вред от добычи сланцевого газа может принести попадание этих химических реагентов в пласты, содержащие артезианскую воду, которую используют для питья.</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/PCTIJCsz7Yt8HA</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/AQLqmSeKtZC21A</t>
-  </si>
-  <si>
-    <t>https://yadi.sk/i/xN19cjDbCxNeqg</t>
-  </si>
-  <si>
-    <t>Именно в Голландии Петр I увидел, как торф применяют  как подстилку для домашнего скота вместо соломы, и, убедившись в полезности голландского опыта, попытался перенести его на русскую землю, приказав подданным добывать торф, особенно в безлесных местах.</t>
+    <t>https://yadi.sk/i/IHfMDaY6jxoN0A</t>
+  </si>
+  <si>
+    <t>Золото</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/egcqvjbNg2ZBOg</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/TqhQg_BNqDhzhw</t>
+  </si>
+  <si>
+    <t>Советское шампанское</t>
+  </si>
+  <si>
+    <t>Оборудование не просто так поставила французская фирма. «Советское шампанское» - популярная торговая марка, которая производится до сих пор</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/vJw7sQLZt0YDeA</t>
+  </si>
+  <si>
+    <t>кто/ что/ где/ когда</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/q5qQZfBs_Xs6TA</t>
+  </si>
+  <si>
+    <t>Взвешивали</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/-G4573X8iHdx5w</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/Qi6-Z-NQqkzFYA</t>
+  </si>
+  <si>
+    <t>По мнению ученых, угрозу языковому разнообразию создает то, что голосовые помощники не понимают говорящих с тем или иным региональным акцентом и тем приходится переходить на "базовый" вариант. В перспективе люди просто отвыкнут говорить не как все.</t>
+  </si>
+  <si>
+    <t>Siri/ Алекса/ Кортана/ Алиса/ Маруся</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/ArGtiOuBVBem_w</t>
+  </si>
+  <si>
+    <t>Альбинос</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/S2BqvuMs4a-XhA</t>
+  </si>
+  <si>
+    <t>Переводчик</t>
+  </si>
+  <si>
+    <t>Итальянцу было довольно трудно общаться на русском языке</t>
+  </si>
+  <si>
+    <t>Любые  из слов "кто, что, где, когда". Ларри Кинг назвал себя человеком, задающим простые короткие вопросы</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/L3KqSexxZOgB3Q</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/VTras0Pojft0xw</t>
+  </si>
+  <si>
+    <t>Если раньше сплетались цветы, то сейчас – лампочки</t>
+  </si>
+  <si>
+    <t>Гирлянда</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/04belgwyL-D0Uw</t>
+  </si>
+  <si>
+    <t>Щёлочи</t>
+  </si>
+  <si>
+    <t>Авторы статьи возводят этимологию слова "щёлочи" к слову "щели", то есть трещины на руках</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/IJikn40nJLRtNg</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/DXSQgxMQ0F4waQ</t>
+  </si>
+  <si>
+    <t>Молния</t>
+  </si>
+  <si>
+    <t>Электричество при попадании молнии в крупный водоем тоже опасно для его обитателей, но звук еще опасней</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/uJxCTf3Gu7e73A</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/M93uX-OOWjd4vw</t>
+  </si>
+  <si>
+    <t>Снеговика/ Снеговик</t>
+  </si>
+  <si>
+    <t>Нос снеговика традиционно делают из морковки, про которую и идет речь в вопросе</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/rK1SDwOzDZM4-g</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/xPQOqqoYce_Ijw</t>
+  </si>
+  <si>
+    <t>Олени</t>
+  </si>
+  <si>
+    <t>Герой мультфильма «Клаус» сначала запрягает в повозку с подарками лошадь, но для нее поклажа оказывается слишком тяжелой, после чего в лесу он ловит несколько оленей</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/9Xl48AA2k5yhoQ</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/K9l4WPxAzOmhDg</t>
+  </si>
+  <si>
+    <t>Tinder/ Тиндер</t>
+  </si>
+  <si>
+    <t>Так состоялось первое в Антарктиде знакомство через приложение для знакомств. Tinder показывает расстояние до ближайшего пользователя</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/fx_sooVwgdk-kg</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/VtjJgla_Pc7NOw</t>
+  </si>
+  <si>
+    <t>Паук</t>
+  </si>
+  <si>
+    <t>Паутина похожа на серебряные нити</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/v8GsG88Q9hI43g</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/zyMB12hdgSW1Mw</t>
+  </si>
+  <si>
+    <t>Комары</t>
+  </si>
+  <si>
+    <t>Места там влажные и комариные</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/RfDw0MmIarvX4A</t>
+  </si>
+  <si>
+    <t>Боязнь бороды</t>
+  </si>
+  <si>
+    <t>Пышная борода Санта-Клауса становится причиной негативного отношения к связанным с ним праздникам</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/aN4CcOFBWkHvGQ</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/G_jixIbVHzdO0g</t>
+  </si>
+  <si>
+    <t>Медведь</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/H2NaxKwSVsDF5w</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/f-IB7E9hPUSnbw</t>
+  </si>
+  <si>
+    <t>Гринч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 января – православное рождество. Фильм «Как Гринч украл Рождество». Статья называлась «Хром, укравший рождество» </t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/1QNl8UhvH7iG5w</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/gt70AFjuMcD8Rg</t>
+  </si>
+  <si>
+    <t>Алкоголизм/ пьянство</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/1blZuGtoxqUVfg</t>
+  </si>
+  <si>
+    <t>Будильник</t>
+  </si>
+  <si>
+    <t>Чтобы медведь в очередной раз его не проспал</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/ZfLBwvX3Yk0NOA</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/ncJvyUZWqFhACA</t>
+  </si>
+  <si>
+    <t>декабрь/ январь/ февраль</t>
+  </si>
+  <si>
+    <t>Они – белые кони. Принц на белом коне. Песня «Три белых коня» из фильма «Чародеи»</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/emyC7j2Ikxjrgw</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/oM4NwDqNH8uHgA</t>
+  </si>
+  <si>
+    <t>Исаак Ньютон/ Ньютон</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/qQXoR1cfV_hIkg</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/pzZS_CutmCvDMg</t>
+  </si>
+  <si>
+    <t>Крокодил</t>
+  </si>
+  <si>
+    <t>Лунный дракон должен проглотить солнце, которое символизирует огненный шар. В сказке «краденое солнце» крокодил глотает солнце</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/2Fvka53dAC-k8g</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/i9eh3MZ6_TDaRQ</t>
+  </si>
+  <si>
+    <t>который обычно изображается дородным, массивным старичком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Санта-Клаус/ Санта Клаус/ Санта </t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/Vhf7FE15nJXsCg</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/YqrKNNcJeG493Q</t>
+  </si>
+  <si>
+    <t>Елка/ Ёлка</t>
+  </si>
+  <si>
+    <t>Строчка из песни «На малютке-планете» содержит явную отсылку к загадке «Зимой и летом одним цветом». На концертах Елки в декабре подвыпившие люди иногда кричат «Елочка, гори!»</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/W42u2O5GH1qRNg</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/YFeEY7d_fPSWgQ</t>
+  </si>
+  <si>
+    <t>Бокс</t>
+  </si>
+  <si>
+    <t>Коробка на английском – «box». В честь обычая 26 декабря в Англии до сих пор называют boxing day – что-то вроде коробковый день. Бокс на английском – boxing</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/ZlIZ5qizjbkmTQ</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/Ipgcr0zAQm9_RA</t>
+  </si>
+  <si>
+    <t>Ну, Погоди!/ Ну Погоди!/ Ну Погоди</t>
+  </si>
+  <si>
+    <t>Энтину показали рисунки 8-ой серии мультсериала. «Пролил немало горьких слез» - почти строчка из песни</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/4urfym8CpQE_Pw</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/IqIQ6uwQEE6UiA</t>
+  </si>
+  <si>
+    <t>Старый Новый год</t>
+  </si>
+  <si>
+    <t>Папа Григорий ввел григорианский календарь, в результате которого дата сместилась примерно на 2 недели. Швейцарские протестанты продолжили отмечать праздник по юлианскому календарю</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/MmDxxH13i0_Mjw</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/Lr5b77srXW35hQ</t>
+  </si>
+  <si>
+    <t>Верблюжье молоко</t>
+  </si>
+  <si>
+    <t>Как и в российских школах, арабским школьникам выдают молоко, но местного производства. Витаминов в верблюжьем молоке больше, а калорий – меньше</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/tkxWhlqBst1cWA</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/p3SoSi0WRxToXA</t>
+  </si>
+  <si>
+    <t>В ремне/ ремень</t>
+  </si>
+  <si>
+    <t>После обильных новогодних возлияний большинство англичан теряют стройность в талии</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/TI4yWmNwjH_VMA</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/_i2b4g0R5t5cUg</t>
+  </si>
+  <si>
+    <t>восходящее солнце</t>
+  </si>
+  <si>
+    <t>Япония – страна восходящего солнца. Географическое положение Японии обязывает встречать страну новый год одной из первых в мире</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/x3RIpirWkce9_Q</t>
+  </si>
+  <si>
+    <t>Отмывать деньги</t>
+  </si>
+  <si>
+    <t>Перед приготовлением пудинга монетки моют для дезинфекции. У героя сериала появилось много наличных денег, поэтому чтобы их отмыть, он покупает автомойку, где моют в прямом смысле</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/_6VpuH_JHtq9qQ</t>
+  </si>
+  <si>
+    <t>Пожарные</t>
+  </si>
+  <si>
+    <t>Дзидзо спускается в ад не только за детьми, но и чтобы остудить адское пламя и облегчить страдания грешников</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/8kGEcY7UBX07KA</t>
+  </si>
+  <si>
+    <t>Готовь сани летом</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/sYD5uYVDAU3U4Q</t>
+  </si>
+  <si>
+    <t>Откладывать в долгий ящик</t>
+  </si>
+  <si>
+    <t>Выражение откладывать дело в долгий ящик означает "тянуть, задерживать, медлить"</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/1DwhR047Py5nJQ</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/2vvVJgEC8DEMaw</t>
+  </si>
+  <si>
+    <t>Краж техники/ кража</t>
+  </si>
+  <si>
+    <t>Если щедро обклеить камеру, она будет выглядеть старой и с емньшей вероятностью заинтересует воров. Горячие точки часто находятся в неблагополучных странах с высоким уровнем преступности.</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/luO7QrQ4QKG0PA</t>
+  </si>
+  <si>
+    <t>Тюрьмы/ тюрьма</t>
+  </si>
+  <si>
+    <t>Здесь случайных людей никогда не ждут</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/avvrAuo2swlUnA</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/c3a8PgyPsFF7MA</t>
+  </si>
+  <si>
+    <t>это была церемония вручения «Всемирной премии за тупость»</t>
+  </si>
+  <si>
+    <t>в Монреале/ Монреаль</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/X80HwRGUr2fEtw</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/qTdfktP7S_GiQA</t>
+  </si>
+  <si>
+    <t>Побег/ Побег из тюрьмы</t>
+  </si>
+  <si>
+    <t>Бразильский наркоторговец решил притвориться дочерью и сбежать из тюрьмы. ПОпытка, конечно же, провалилась. В 2010 году проходили съемки российской версии сериала "Побег", в котором для создания тюрьмы за основу брали питерские "Кресты".</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/WAq6RIlQ69Np1w</t>
+  </si>
+  <si>
+    <t>https://yadi.sk/i/KqLQ3H65qOCvxw</t>
+  </si>
+  <si>
+    <t>Как я встретил вашу маму</t>
+  </si>
+  <si>
+    <t>Сам персонаж в ответ на это говорит, что уж он-то своим детям расскажет всё подробнейшим образом. До сих пор, кстати, рассказывает, уже несколько сезонов</t>
   </si>
 </sst>
 </file>
@@ -331,12 +466,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -351,9 +492,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -657,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,52 +830,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -741,24 +886,27 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -766,30 +914,27 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -797,377 +942,533 @@
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="E31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="E32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
